--- a/로스트아크/데이터테이블/Effect_Table(변경중).xlsx
+++ b/로스트아크/데이터테이블/Effect_Table(변경중).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087CD324-77D6-4051-92A5-B338DBEE33C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30EEB65-6ED0-48D8-B8FC-C0044E20171C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
@@ -1462,1118 +1462,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{A5270C66-88C5-4F4F-990E-043123595C97}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>효과</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>세부</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>분류</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>효과</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>타입</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>별</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">[type = DAMAGE]
--&gt; detail_type = </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>피해</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>유형</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-single : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>단일</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">피해
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">area : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>광역</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">피해
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">projectile : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>발사체</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">피해
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">stagger : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>무력화</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">피해
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">weakpoint : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>부위</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">파괴
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">[type = ABILITY_INCREASE/DECREASE]
--&gt; detail_type = </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>효과가</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>적용되는</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>스탯</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">atk_pwr : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">공격력
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">move_spd : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이동</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">속도
-등등
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>[type = SPECIAL_BUFF/DEBUFF]</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">-&gt; detail_type = </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>상세</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>효과</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">heal : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">회복
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">invincibility : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">무적
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">burn : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">화상
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">stun : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>기절</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">등등
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">[type = SKILL_MODIFY]
--&gt; detail_type = </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>스킬에</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>적용되는</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>효과</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-cooldown_increase : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>재사용</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>대기</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>시간</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">증가
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">cooldown_decrease : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>재사용</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>대기</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>시간</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">감소
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">element_grant : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>속성</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">부여
-등등
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">[type = GAUGE_RECOVER/CONSUME]
--&gt; detail_type = </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>게이지</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>유형</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">identity : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>아이덴티티</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">게이지
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">penalty : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>페널티</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">게이지
-등등
-</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -2767,7 +1655,7 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t>ABILITY_INCREASE</t>
+          <t>ABILITY_BUFF</t>
         </r>
         <r>
           <rPr>
@@ -2791,7 +1679,7 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t>ABILITY_DECREASE</t>
+          <t>ABILITY_DEBUFF</t>
         </r>
         <r>
           <rPr>
@@ -2898,7 +1786,31 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve"> : 게이지 회복/소모</t>
+          <t xml:space="preserve"> : 게이지 회복/소모
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>OBJECT_SPAWN</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 오브젝트 생성</t>
         </r>
       </text>
     </comment>
@@ -2907,7 +1819,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="108">
   <si>
     <t>comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2978,10 +1890,6 @@
   </si>
   <si>
     <t>설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기획용 (간단한 설명)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3062,10 +1970,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>일반 피해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공격력 N 증가 - 자신</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3098,10 +2002,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>고정 피해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fixed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3110,23 +2010,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>무력화 피해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ENERMY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stagger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부위 파괴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weakpoint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3171,23 +2055,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">효과 이름 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(시스템용, UI표시 X)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>target_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3213,14 +2080,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BUFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEBUFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SKILL_CONTROL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3234,10 +2093,6 @@
   </si>
   <si>
     <t>효과에 필요한 매개변수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[damage,hit_cnt,]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3266,10 +2121,6 @@
   </si>
   <si>
     <t>NONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect_identifier</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3410,10 +2261,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>최대 체력 비례 피해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[hp_ratio,hit_cnt]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3422,15 +2269,114 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"damage"}의 무력화 피해를 {"hit_cnt"}번 준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tick</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"tick"}마다 {"damage"}의 피해를 준다.</t>
+    <t>TICK 대미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 대미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정 대미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 체력 비례 대미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해량 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[damage]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OBJECT_SPAWN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[obj_id]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[shield]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[hp_raio]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"shield"}의 피해를 흡수하는 보호막을 형성한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 생명력 비례 보호막 -자신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tick_time"}마다 {"damage"}의 피해를 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[gauge]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이덴티티 게이지를 {"gauge"}만큼 회복한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id = {"obj_id"}인 오브젝트를 생성한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 생명력 {"hp_ratio"}%만큼 받는 피해를 흡수한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>ABILITY_BUFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABILITY_DEBUFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPECIAL_BUFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPECIAL_DEBUFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[base_dmg,hit_cnt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[base_dmg,tick_time]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과 요약 설명 (기획용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3956,7 +2902,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4062,6 +3008,24 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4107,23 +3071,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4447,10 +3408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
-  <dimension ref="B1:M86"/>
+  <dimension ref="A1:M87"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4471,16 +3432,16 @@
   <sheetData>
     <row r="1" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:11" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37"/>
-      <c r="H2" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
+      <c r="H2" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="45"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C3" s="5" t="s">
@@ -4496,31 +3457,31 @@
         <v>17</v>
       </c>
       <c r="G3" s="8"/>
-      <c r="H3" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="43"/>
+      <c r="H3" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="49"/>
     </row>
     <row r="4" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C4" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="G4" s="8"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="46"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B5" s="12" t="s">
@@ -4536,105 +3497,93 @@
         <v>3</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" s="8"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="46"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="52"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B6" s="12"/>
-      <c r="C6" s="17">
-        <v>2</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>56</v>
-      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="27"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="46"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="52"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C7" s="17">
-        <v>2</v>
-      </c>
+      <c r="C7" s="17"/>
       <c r="D7" s="18" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G7" s="8"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="46"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="52"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C8" s="17"/>
       <c r="D8" s="18" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="8"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="46"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="52"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C9" s="17">
-        <v>4</v>
-      </c>
+      <c r="C9" s="17"/>
       <c r="D9" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="F9" s="27" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G9" s="8"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="46"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="52"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C10" s="17"/>
       <c r="D10" s="18" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G10" s="8"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="46"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="52"/>
     </row>
     <row r="11" spans="2:11" ht="31.2" x14ac:dyDescent="0.4">
       <c r="C11" s="17"/>
@@ -4645,30 +3594,30 @@
         <v>4</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G11" s="8"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="46"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="52"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C12" s="17"/>
-      <c r="D12" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>82</v>
+      <c r="D12" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="58" t="s">
+        <v>70</v>
       </c>
       <c r="G12" s="8"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="46"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="52"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C13" s="17"/>
@@ -4676,10 +3625,10 @@
       <c r="E13" s="19"/>
       <c r="F13" s="27"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="46"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="52"/>
     </row>
     <row r="14" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C14" s="17"/>
@@ -4687,10 +3636,10 @@
       <c r="E14" s="19"/>
       <c r="F14" s="27"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="46"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="52"/>
     </row>
     <row r="15" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C15" s="17"/>
@@ -4698,91 +3647,97 @@
       <c r="E15" s="19"/>
       <c r="F15" s="20"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="49"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="55"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C16" s="50"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="53"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="39"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="C17" s="50"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="53"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="39"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="C18" s="50"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="53"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="39"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-    </row>
-    <row r="19" spans="3:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+    </row>
+    <row r="19" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C19" s="21"/>
       <c r="D19" s="22"/>
       <c r="E19" s="23"/>
       <c r="F19" s="24"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="F24" s="26"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A25" s="56" t="s">
+        <v>99</v>
+      </c>
       <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="F25" s="26"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C26" s="2"/>
-      <c r="F26" s="26"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="F26" s="57"/>
+      <c r="G26" s="33"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C27" s="2"/>
       <c r="F27" s="26"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="F28" s="57"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C30" s="2"/>
-      <c r="F30" s="26"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="F31" s="26"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.4">
@@ -4946,6 +3901,9 @@
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C86" s="2"/>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C87" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4962,10 +3920,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
-  <dimension ref="A1:W36"/>
+  <dimension ref="A1:W44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4973,13 +3931,12 @@
     <col min="1" max="1" width="25.8984375" style="31" customWidth="1"/>
     <col min="2" max="2" width="8.19921875" style="32" customWidth="1"/>
     <col min="3" max="3" width="10.796875" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.8984375" style="32" customWidth="1"/>
+    <col min="4" max="4" width="15.8984375" style="32" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.8984375" style="32" customWidth="1"/>
-    <col min="7" max="7" width="8.8984375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="73.796875" style="55" customWidth="1"/>
-    <col min="9" max="9" width="15.69921875" style="33" customWidth="1"/>
-    <col min="10" max="12" width="15.69921875" style="34" customWidth="1"/>
+    <col min="6" max="6" width="8.8984375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.8984375" style="32" customWidth="1"/>
+    <col min="10" max="10" width="73.796875" style="40" customWidth="1"/>
+    <col min="11" max="12" width="15.69921875" style="34" customWidth="1"/>
     <col min="13" max="14" width="15.69921875" style="33" customWidth="1"/>
     <col min="15" max="15" width="18.69921875" style="33" customWidth="1"/>
     <col min="16" max="19" width="15.69921875" style="34" customWidth="1"/>
@@ -4995,25 +3952,23 @@
         <v>2</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="30"/>
+      <c r="I1" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>69</v>
+      </c>
       <c r="K1" s="30"/>
       <c r="L1" s="30"/>
       <c r="M1" s="2"/>
@@ -5030,31 +3985,29 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2" s="31" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="B2" s="32">
         <v>1000</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="32" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="2" t="b">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H2" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="30"/>
+      <c r="I2" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" s="40" t="s">
+        <v>76</v>
+      </c>
       <c r="K2" s="30"/>
       <c r="L2" s="30"/>
       <c r="M2" s="2"/>
@@ -5071,28 +4024,29 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" s="31" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="B3" s="32">
         <v>1001</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="32" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="2" t="b">
+        <v>39</v>
+      </c>
+      <c r="F3" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H3" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="30"/>
+      <c r="I3" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>77</v>
+      </c>
       <c r="K3" s="30"/>
       <c r="L3" s="30"/>
       <c r="M3" s="2"/>
@@ -5108,23 +4062,27 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A4" s="31" t="s">
+        <v>81</v>
+      </c>
       <c r="C4" s="32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D4" s="32" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="J4" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="30"/>
       <c r="K4" s="30"/>
       <c r="L4" s="30"/>
       <c r="M4" s="2"/>
@@ -5141,28 +4099,26 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A5" s="31" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="32" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" s="2" t="b">
+        <v>62</v>
+      </c>
+      <c r="F5" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H5" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="30"/>
+      <c r="I5" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="40" t="s">
+        <v>79</v>
+      </c>
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
       <c r="M5" s="2"/>
@@ -5178,26 +4134,6 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A6" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="30"/>
       <c r="K6" s="30"/>
       <c r="L6" s="30"/>
       <c r="M6" s="2"/>
@@ -5213,23 +4149,7 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A7" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="30"/>
+      <c r="G7" s="3"/>
       <c r="K7" s="30"/>
       <c r="L7" s="30"/>
       <c r="M7" s="2"/>
@@ -5244,9 +4164,31 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="I8" s="2"/>
-      <c r="J8" s="30"/>
+    <row r="8" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="32">
+        <v>2000</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>71</v>
+      </c>
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
       <c r="M8" s="2"/>
@@ -5261,33 +4203,32 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A9" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="32">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="30"/>
+        <v>40</v>
+      </c>
+      <c r="F9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="I9" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>72</v>
+      </c>
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
       <c r="M9" s="2"/>
@@ -5304,98 +4245,95 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A10" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="32">
+        <v>2002</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="I10" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="32">
-        <v>2001</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="2" t="b">
+      <c r="B11" s="32">
+        <v>2003</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H10" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A11" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="32">
-        <v>2002</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="55" t="s">
-        <v>85</v>
-      </c>
+      <c r="I11" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="31" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="B12" s="32">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="30"/>
+        <v>40</v>
+      </c>
+      <c r="F12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>75</v>
+      </c>
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
       <c r="M12" s="2"/>
@@ -5411,32 +4349,14 @@
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="32">
-        <v>2004</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="30"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="40"/>
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
       <c r="M13" s="2"/>
@@ -5452,16 +4372,28 @@
       <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="31"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="30"/>
+      <c r="A14" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="32">
+        <v>2100</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" s="40"/>
       <c r="K14" s="30"/>
       <c r="L14" s="30"/>
       <c r="M14" s="2"/>
@@ -5477,28 +4409,14 @@
       <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="32">
-        <v>3000</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="32"/>
-      <c r="G15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" s="55"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="30"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="40"/>
       <c r="K15" s="30"/>
       <c r="L15" s="30"/>
       <c r="M15" s="2"/>
@@ -5513,27 +4431,15 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A16" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="32">
-        <v>3001</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="30"/>
+    <row r="16" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="40"/>
       <c r="K16" s="30"/>
       <c r="L16" s="30"/>
       <c r="M16" s="2"/>
@@ -5554,11 +4460,9 @@
       <c r="C17" s="32"/>
       <c r="D17" s="32"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="30"/>
+      <c r="F17" s="2"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="40"/>
       <c r="K17" s="30"/>
       <c r="L17" s="30"/>
       <c r="M17" s="2"/>
@@ -5573,249 +4477,459 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A18" s="31" t="s">
+    <row r="18" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="31"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+    </row>
+    <row r="19" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="32">
+        <v>3000</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="32">
-        <v>4000</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="2" t="b">
+      <c r="F19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="32"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A20" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="32">
+        <v>3001</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A19" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="32">
-        <v>4001</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A21" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="32">
-        <v>5000</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="G20" s="3"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+    </row>
+    <row r="21" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="31"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A22" s="31" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B22" s="32">
-        <v>5100</v>
+        <v>4000</v>
       </c>
       <c r="C22" s="32" t="s">
         <v>24</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="2" t="b">
+        <v>9</v>
+      </c>
+      <c r="F22" s="2" t="b">
         <v>0</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="I22" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="J22" s="40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A23" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="32">
+        <v>4001</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="J23" s="40" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A24" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="32">
-        <v>6000</v>
+        <v>93</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="2" t="b">
+        <v>9</v>
+      </c>
+      <c r="F24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="I24" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="J24" s="40" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A27" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="32">
+        <v>5000</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A25" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="32">
-        <v>6001</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A26" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="32">
-        <v>6002</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A28" s="31" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B28" s="32">
-        <v>7000</v>
+        <v>5100</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D28" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A30" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G28" s="2" t="b">
+      <c r="B30" s="32">
+        <v>6000</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A29" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="32">
-        <v>7001</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G29" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A31" s="31" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B31" s="32">
-        <v>7500</v>
+        <v>6001</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G31" s="2" t="b">
-        <v>0</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A32" s="31" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="B32" s="32">
+        <v>6002</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A34" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="32">
+        <v>7000</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="I34" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="J34" s="40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A35" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="32">
+        <v>7001</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A37" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="32">
+        <v>7500</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A38" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="32">
         <v>7501</v>
       </c>
-      <c r="C32" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="C38" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="G32" s="2" t="b">
+      <c r="E38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A34" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="32">
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A40" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="32">
         <v>8000</v>
       </c>
-      <c r="C34" s="32" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A35" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A36" s="31" t="s">
-        <v>70</v>
-      </c>
+      <c r="C40" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="I40" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="J40" s="40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A41" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A42" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="G44" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/로스트아크/데이터테이블/Effect_Table(변경중).xlsx
+++ b/로스트아크/데이터테이블/Effect_Table(변경중).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30EEB65-6ED0-48D8-B8FC-C0044E20171C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084B6C16-9633-4759-BF23-4514EDC3519A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
@@ -86,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{7A13DD9A-6D13-4B12-980E-AD1338953E07}">
+    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{7A13DD9A-6D13-4B12-980E-AD1338953E07}">
       <text>
         <r>
           <rPr>
@@ -187,7 +187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{8E934344-3168-45B6-B362-C082849CAC1F}">
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{8E934344-3168-45B6-B362-C082849CAC1F}">
       <text>
         <r>
           <rPr>
@@ -224,18 +224,18 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t>BUFF</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 버프
+          <t>ABILITY_BUFF</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 능력치 버프
 </t>
         </r>
         <r>
@@ -248,18 +248,18 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t>DEBUFF</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 디버프</t>
+          <t>ABILITY_DEBUFF</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 능력치 디버프</t>
         </r>
         <r>
           <rPr>
@@ -281,6 +281,70 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
+          <t>SPECIAL_BUFF</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve"> : 특수 기능 - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">버프
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>SPECIAL_DEBUFF</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve"> : 특수 기능 - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">디버프
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
           <t>SKILL_CONTROL</t>
         </r>
         <r>
@@ -350,140 +414,28 @@
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{DA91B2BA-E66D-4979-859B-CD147D729029}">
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{DA91B2BA-E66D-4979-859B-CD147D729029}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>효과</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>세부</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>분류</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>효과</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>타입</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>별</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[effect_type 별 효과 세부 분류]</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -493,303 +445,138 @@
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">[type = DAMAGE]
--&gt; detail_type = </t>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>{ type = DAMAGE } -&gt; detail_type : 피해 유형</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+single : 단일 피해
+area : 광역 피해
+projectile : 발사체 피해
+</t>
         </r>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>피해</t>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>{ type = ABILITY_BUFF/DEBUFF } -&gt; detail_type : 효과가 적용되는 능력치</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+atk_pwr : 공격력
+move_spd : 이동 속도
+등등
+</t>
         </r>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">{ type = SPECIAL_BUFF/DEBUFF } -&gt; detail_type : 상세 효과 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+heal : 회복
+invincibility : 무적
+burn : 화상
+stun : 기절
+등등
+</t>
         </r>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>유형</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>{ type = SKILL_CONTROL } -&gt; detail_type : 스킬에 적용되는 효과</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">
-single : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>단일</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">피해
+cooldown_increase : 재사용 대기 시간 증가
+cooldown_decrease : 재사용 대기 시간 감소
+element_grant : 속성 부여
+등등
 </t>
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">area : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>광역</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">피해
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">projectile : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>발사체</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">피해
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">stagger : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>무력화</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">피해
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">weakpoint : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>부위</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">파괴
-</t>
-        </r>
-        <r>
-          <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">[type = ABILITY_INCREASE/DECREASE]
--&gt; detail_type = </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>효과가</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>적용되는</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>스탯</t>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+{ type = GAUGE_CONTROL } -&gt; detail_type : 게이지 유형</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+identity : 아이덴티티 게이지
+penalty : 페널티 게이지
+등등</t>
         </r>
         <r>
           <rPr>
@@ -802,64 +589,57 @@
           <t xml:space="preserve">
 </t>
         </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">atk_pwr : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">공격력
+      </text>
+    </comment>
+    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{A90463F8-1927-4B0C-A9DB-61DCE1E15084}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[수치의 적용 유형]</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+(효과가 적용되는 데이터 기준)
 </t>
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">move_spd : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이동</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">속도
-등등
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>PLUS</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 고정 수치 증가
 </t>
         </r>
         <r>
@@ -867,20 +647,23 @@
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>[type = SPECIAL_BUFF/DEBUFF]</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>MINUS</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 고정 수치 감소
 </t>
         </r>
         <r>
@@ -888,577 +671,47 @@
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">-&gt; detail_type = </t>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>INCREASE</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 비율 증가 
+</t>
         </r>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>상세</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>효과</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">heal : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">회복
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">invincibility : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">무적
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">burn : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">화상
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">stun : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>기절</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">등등
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">[type = SKILL_MODIFY]
--&gt; detail_type = </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>스킬에</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>적용되는</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>효과</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-cooldown_increase : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>재사용</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>대기</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>시간</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">증가
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">cooldown_decrease : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>재사용</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>대기</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>시간</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">감소
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">element_grant : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>속성</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">부여
-등등
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">[type = GAUGE_RECOVER/CONSUME]
--&gt; detail_type = </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>게이지</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>유형</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">identity : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>아이덴티티</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">게이지
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">penalty : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>페널티</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">게이지
-등등
-</t>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>DECREASE</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 비율 감소</t>
         </r>
       </text>
     </comment>
@@ -1819,7 +1072,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="115">
   <si>
     <t>comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1837,10 +1090,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1866,10 +1115,6 @@
   </si>
   <si>
     <t>fear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_ratio</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1950,14 +1195,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>element_grant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cooldown_decrease</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스킬 효과 ID 넘버링</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2124,79 +1361,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">비율 연산이 필요한 지 확인 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FALSE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(0): 고정 수치 증감 // </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TRUE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(1): 비율 연산 후 적용</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>percent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2217,10 +1381,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[base_atk_pwr]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기본 공격력 비례 증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2229,10 +1389,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>효과 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>자신의 공격력이 {"atk_pwr"} 증가한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2249,10 +1405,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자신 및 파티원의 파티원의 공격력에 자신의 기본 공격력의 {"base_atk_pwr"}%만큼 더한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"damage"}의 피해를 {"hit_cnt"}번 준다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2265,10 +1417,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>최대 체력의 {"hp_ratio"}%에 해당하는 피해를 {"hit_cnt"}번 준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tick</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2341,10 +1489,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>최대 생명력 {"hp_ratio"}%만큼 받는 피해를 흡수한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -2364,19 +1508,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[base_dmg,hit_cnt]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[base_dmg,tick_time]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>효과 요약 설명 (기획용)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수치의 적용 유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영역형 오브젝트 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cooldown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INCREASE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MINUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECREASE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_atk_pwr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>source_stat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상 최대 체력의 {"hp_ratio"}%에 해당하는 피해를 {"hit_cnt"}번 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신 최대 생명력의 {"hp_ratio"}%만큼 받는 피해를 흡수한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신 및 파티원의 파티원의 공격력에 자신의 기본 공격력의 {"atk_pwr"}%만큼 더한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dmg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적에게 주는 피해가 {"damage"}% 증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[damage,hit_cnt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[damage,tick_time]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2388,7 +1600,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2467,15 +1679,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF0070C0"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="맑은 고딕"/>
@@ -2496,21 +1699,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2573,7 +1761,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -2757,37 +1945,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2902,7 +2059,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2921,7 +2078,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2930,13 +2087,13 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3011,21 +2168,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3045,46 +2208,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3408,7 +2547,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
-  <dimension ref="A1:M87"/>
+  <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
@@ -3432,60 +2571,60 @@
   <sheetData>
     <row r="1" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:11" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
-      <c r="H2" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="46"/>
+      <c r="C2" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="44"/>
+      <c r="E2" s="45"/>
+      <c r="H2" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="47"/>
+      <c r="J2" s="48"/>
     </row>
     <row r="3" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="G3" s="8"/>
-      <c r="H3" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
+      <c r="H3" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="51"/>
     </row>
     <row r="4" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C4" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="G4" s="8"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B5" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
@@ -3497,247 +2636,216 @@
         <v>3</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G5" s="8"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="54"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B6" s="12"/>
       <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="27"/>
+      <c r="D6" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>46</v>
+      </c>
       <c r="G6" s="8"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="54"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C7" s="17"/>
       <c r="D7" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="G7" s="8"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="54"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C8" s="17"/>
       <c r="D8" s="18" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G8" s="8"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="54"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C9" s="17"/>
       <c r="D9" s="18" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="G9" s="8"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="54"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C10" s="17"/>
-      <c r="D10" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>55</v>
-      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="27"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="52"/>
-    </row>
-    <row r="11" spans="2:11" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="H10" s="52"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="54"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C11" s="17"/>
-      <c r="D11" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="27"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="54"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C12" s="17"/>
-      <c r="D12" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="58" t="s">
-        <v>70</v>
-      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="54"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="27"/>
+      <c r="D13" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="G13" s="8"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="52"/>
-    </row>
-    <row r="14" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H13" s="52"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C14" s="17"/>
       <c r="D14" s="18"/>
       <c r="E14" s="19"/>
       <c r="F14" s="27"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="52"/>
-    </row>
-    <row r="15" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="20"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="54"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C15" s="36"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="39"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="55"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C16" s="36"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C18" s="36"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-    </row>
-    <row r="19" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="24"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+    </row>
+    <row r="16" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C16" s="21"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F21" s="26"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="F22" s="26"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C23" s="2"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="33"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C24" s="2"/>
       <c r="F24" s="26"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A25" s="56" t="s">
-        <v>99</v>
-      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C25" s="2"/>
-      <c r="F25" s="26"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="F25" s="42"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C26" s="2"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="33"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C27" s="2"/>
-      <c r="F27" s="26"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C28" s="2"/>
-      <c r="F28" s="57"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="F28" s="26"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C31" s="2"/>
-      <c r="F31" s="26"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.4">
@@ -3896,20 +3004,10 @@
     <row r="84" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C84" s="2"/>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C85" s="2"/>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C86" s="2"/>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C87" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H3:K15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3920,10 +3018,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
-  <dimension ref="A1:W44"/>
+  <dimension ref="A1:X41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3933,18 +3031,20 @@
     <col min="3" max="3" width="10.796875" style="32" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.8984375" style="32" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.8984375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.8984375" style="32" customWidth="1"/>
-    <col min="10" max="10" width="73.796875" style="40" customWidth="1"/>
-    <col min="11" max="12" width="15.69921875" style="34" customWidth="1"/>
-    <col min="13" max="14" width="15.69921875" style="33" customWidth="1"/>
-    <col min="15" max="15" width="18.69921875" style="33" customWidth="1"/>
-    <col min="16" max="19" width="15.69921875" style="34" customWidth="1"/>
-    <col min="20" max="23" width="18.69921875" style="33" customWidth="1"/>
-    <col min="24" max="16384" width="8.796875" style="3"/>
+    <col min="6" max="6" width="9.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.8984375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20.8984375" style="32" customWidth="1"/>
+    <col min="11" max="11" width="73.796875" style="40" customWidth="1"/>
+    <col min="12" max="13" width="15.69921875" style="34" customWidth="1"/>
+    <col min="14" max="15" width="15.69921875" style="33" customWidth="1"/>
+    <col min="16" max="16" width="18.69921875" style="33" customWidth="1"/>
+    <col min="17" max="20" width="15.69921875" style="34" customWidth="1"/>
+    <col min="21" max="24" width="18.69921875" style="33" customWidth="1"/>
+    <col min="25" max="16384" width="8.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -3952,984 +3052,904 @@
         <v>2</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1" s="30"/>
+        <v>96</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="29"/>
+      <c r="J1" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>63</v>
+      </c>
       <c r="L1" s="30"/>
-      <c r="M1" s="2"/>
+      <c r="M1" s="30"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
-      <c r="P1" s="30"/>
+      <c r="P1" s="2"/>
       <c r="Q1" s="30"/>
       <c r="R1" s="30"/>
       <c r="S1" s="30"/>
-      <c r="T1" s="2"/>
+      <c r="T1" s="30"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X1" s="2"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="31" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B2" s="32">
         <v>1000</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="J2" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="K2" s="30"/>
+        <v>25</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="K2" s="40" t="s">
+        <v>68</v>
+      </c>
       <c r="L2" s="30"/>
-      <c r="M2" s="2"/>
+      <c r="M2" s="30"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="30"/>
+      <c r="P2" s="2"/>
       <c r="Q2" s="30"/>
       <c r="R2" s="30"/>
       <c r="S2" s="30"/>
-      <c r="T2" s="2"/>
+      <c r="T2" s="30"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X2" s="2"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A3" s="31" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B3" s="32">
         <v>1001</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="J3" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="K3" s="30"/>
+        <v>35</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>69</v>
+      </c>
       <c r="L3" s="30"/>
-      <c r="M3" s="2"/>
+      <c r="M3" s="30"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="30"/>
+      <c r="P3" s="2"/>
       <c r="Q3" s="30"/>
       <c r="R3" s="30"/>
       <c r="S3" s="30"/>
-      <c r="T3" s="2"/>
+      <c r="T3" s="30"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X3" s="2"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A4" s="31" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="J4" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="K4" s="30"/>
+        <v>71</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="K4" s="40" t="s">
+        <v>85</v>
+      </c>
       <c r="L4" s="30"/>
-      <c r="M4" s="2"/>
+      <c r="M4" s="30"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="30"/>
+      <c r="P4" s="2"/>
       <c r="Q4" s="30"/>
       <c r="R4" s="30"/>
       <c r="S4" s="30"/>
-      <c r="T4" s="2"/>
+      <c r="T4" s="30"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X4" s="2"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A5" s="31" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="J5" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="K5" s="30"/>
+        <v>57</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" s="40" t="s">
+        <v>108</v>
+      </c>
       <c r="L5" s="30"/>
-      <c r="M5" s="2"/>
+      <c r="M5" s="30"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
-      <c r="P5" s="30"/>
+      <c r="P5" s="2"/>
       <c r="Q5" s="30"/>
       <c r="R5" s="30"/>
       <c r="S5" s="30"/>
-      <c r="T5" s="2"/>
+      <c r="T5" s="30"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="K6" s="30"/>
+      <c r="X5" s="2"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="L6" s="30"/>
-      <c r="M6" s="2"/>
+      <c r="M6" s="30"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="30"/>
+      <c r="P6" s="2"/>
       <c r="Q6" s="30"/>
       <c r="R6" s="30"/>
       <c r="S6" s="30"/>
-      <c r="T6" s="2"/>
+      <c r="T6" s="30"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="G7" s="3"/>
-      <c r="K7" s="30"/>
+      <c r="X6" s="2"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="L7" s="30"/>
-      <c r="M7" s="2"/>
+      <c r="M7" s="30"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="30"/>
+      <c r="P7" s="2"/>
       <c r="Q7" s="30"/>
       <c r="R7" s="30"/>
       <c r="S7" s="30"/>
-      <c r="T7" s="2"/>
+      <c r="T7" s="30"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
-    </row>
-    <row r="8" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="X7" s="2"/>
+    </row>
+    <row r="8" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="31" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B8" s="32">
         <v>2000</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="J8" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="K8" s="30"/>
+        <v>36</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="J8" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>64</v>
+      </c>
       <c r="L8" s="30"/>
-      <c r="M8" s="2"/>
+      <c r="M8" s="30"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="30"/>
+      <c r="P8" s="2"/>
       <c r="Q8" s="30"/>
       <c r="R8" s="30"/>
       <c r="S8" s="30"/>
-      <c r="T8" s="2"/>
+      <c r="T8" s="30"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X8" s="2"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9" s="31" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B9" s="32">
         <v>2001</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="I9" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="J9" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="K9" s="30"/>
+        <v>36</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>65</v>
+      </c>
       <c r="L9" s="30"/>
-      <c r="M9" s="2"/>
+      <c r="M9" s="30"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="30"/>
+      <c r="P9" s="2"/>
       <c r="Q9" s="30"/>
       <c r="R9" s="30"/>
       <c r="S9" s="30"/>
-      <c r="T9" s="2"/>
+      <c r="T9" s="30"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X9" s="2"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10" s="31" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B10" s="32">
         <v>2002</v>
       </c>
       <c r="C10" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="31" t="s">
         <v>30</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="I10" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="J10" s="40" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="31" t="s">
-        <v>34</v>
       </c>
       <c r="B11" s="32">
         <v>2003</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="J11" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="K11" s="30"/>
+        <v>36</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="J11" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="40" t="s">
+        <v>67</v>
+      </c>
       <c r="L11" s="30"/>
-      <c r="M11" s="2"/>
+      <c r="M11" s="30"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="30"/>
+      <c r="P11" s="2"/>
       <c r="Q11" s="30"/>
       <c r="R11" s="30"/>
       <c r="S11" s="30"/>
-      <c r="T11" s="2"/>
+      <c r="T11" s="30"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
-    </row>
-    <row r="12" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="X11" s="2"/>
+    </row>
+    <row r="12" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="31" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B12" s="32">
         <v>2004</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="J12" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="K12" s="30"/>
+        <v>36</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="J12" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="40" t="s">
+        <v>110</v>
+      </c>
       <c r="L12" s="30"/>
-      <c r="M12" s="2"/>
+      <c r="M12" s="30"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="30"/>
+      <c r="P12" s="2"/>
       <c r="Q12" s="30"/>
       <c r="R12" s="30"/>
       <c r="S12" s="30"/>
-      <c r="T12" s="2"/>
+      <c r="T12" s="30"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
-    </row>
-    <row r="13" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="X12" s="2"/>
+    </row>
+    <row r="13" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="31"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="30"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="40"/>
       <c r="L13" s="30"/>
-      <c r="M13" s="2"/>
+      <c r="M13" s="30"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="30"/>
+      <c r="P13" s="2"/>
       <c r="Q13" s="30"/>
       <c r="R13" s="30"/>
       <c r="S13" s="30"/>
-      <c r="T13" s="2"/>
+      <c r="T13" s="30"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
-    </row>
-    <row r="14" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="X13" s="2"/>
+    </row>
+    <row r="14" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="31" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B14" s="32">
         <v>2100</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="J14" s="40"/>
-      <c r="K14" s="30"/>
+        <v>77</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="J14" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="40" t="s">
+        <v>112</v>
+      </c>
       <c r="L14" s="30"/>
-      <c r="M14" s="2"/>
+      <c r="M14" s="30"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-      <c r="P14" s="30"/>
+      <c r="P14" s="2"/>
       <c r="Q14" s="30"/>
       <c r="R14" s="30"/>
       <c r="S14" s="30"/>
-      <c r="T14" s="2"/>
+      <c r="T14" s="30"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
-    </row>
-    <row r="15" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="X14" s="2"/>
+    </row>
+    <row r="15" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="31"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="30"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="40"/>
       <c r="L15" s="30"/>
-      <c r="M15" s="2"/>
+      <c r="M15" s="30"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="30"/>
+      <c r="P15" s="2"/>
       <c r="Q15" s="30"/>
       <c r="R15" s="30"/>
       <c r="S15" s="30"/>
-      <c r="T15" s="2"/>
+      <c r="T15" s="30"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
-    </row>
-    <row r="16" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="X15" s="2"/>
+    </row>
+    <row r="16" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="31"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
       <c r="D16" s="32"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="30"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="40"/>
       <c r="L16" s="30"/>
-      <c r="M16" s="2"/>
+      <c r="M16" s="30"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="30"/>
+      <c r="P16" s="2"/>
       <c r="Q16" s="30"/>
       <c r="R16" s="30"/>
       <c r="S16" s="30"/>
-      <c r="T16" s="2"/>
+      <c r="T16" s="30"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
-    </row>
-    <row r="17" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="30"/>
+      <c r="X16" s="2"/>
+    </row>
+    <row r="17" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="32">
+        <v>3000</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="40"/>
       <c r="L17" s="30"/>
-      <c r="M17" s="2"/>
+      <c r="M17" s="30"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
-      <c r="P17" s="30"/>
+      <c r="P17" s="2"/>
       <c r="Q17" s="30"/>
       <c r="R17" s="30"/>
       <c r="S17" s="30"/>
-      <c r="T17" s="2"/>
+      <c r="T17" s="30"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
-    </row>
-    <row r="18" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="30"/>
+      <c r="X17" s="2"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A18" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="32">
+        <v>3001</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="L18" s="30"/>
-      <c r="M18" s="2"/>
+      <c r="M18" s="30"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
-      <c r="P18" s="30"/>
+      <c r="P18" s="2"/>
       <c r="Q18" s="30"/>
       <c r="R18" s="30"/>
       <c r="S18" s="30"/>
-      <c r="T18" s="2"/>
+      <c r="T18" s="30"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
-    </row>
-    <row r="19" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="32">
-        <v>3000</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" s="32"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="30"/>
+      <c r="X18" s="2"/>
+    </row>
+    <row r="19" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="40"/>
       <c r="L19" s="30"/>
-      <c r="M19" s="2"/>
+      <c r="M19" s="30"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
-      <c r="P19" s="30"/>
+      <c r="P19" s="2"/>
       <c r="Q19" s="30"/>
       <c r="R19" s="30"/>
       <c r="S19" s="30"/>
-      <c r="T19" s="2"/>
+      <c r="T19" s="30"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X19" s="2"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A20" s="31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20" s="32">
-        <v>3001</v>
+        <v>4000</v>
       </c>
       <c r="C20" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J20" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="K20" s="40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A21" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="32">
+        <v>4001</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K21" s="40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A22" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J22" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="K22" s="40" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A25" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="32">
+        <v>5000</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A26" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="32">
+        <v>5100</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A28" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="32">
+        <v>6000</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A29" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="32">
+        <v>6001</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A30" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="B30" s="32">
+        <v>6002</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A32" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="32">
+        <v>7000</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="J32" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="K32" s="40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A33" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="32">
+        <v>7001</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A35" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-    </row>
-    <row r="21" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="31"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A22" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="32">
-        <v>4000</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="I22" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="J22" s="40" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A23" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="32">
-        <v>4001</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="J23" s="40" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A24" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="I24" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="J24" s="40" t="s">
+      <c r="B35" s="32">
+        <v>7500</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A36" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="32">
+        <v>7501</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A38" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="32">
+        <v>8000</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="J38" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="K38" s="40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A39" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A40" s="31" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A27" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="32">
-        <v>5000</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A28" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="32">
-        <v>5100</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A30" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="32">
-        <v>6000</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A31" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="32">
-        <v>6001</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A32" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="32">
-        <v>6002</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A34" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="32">
-        <v>7000</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F34" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G34" s="3"/>
-      <c r="I34" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="J34" s="40" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A35" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="32">
-        <v>7001</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F35" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A37" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="32">
-        <v>7500</v>
-      </c>
-      <c r="C37" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F37" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="32">
-        <v>7501</v>
-      </c>
-      <c r="C38" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F38" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A40" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="32">
-        <v>8000</v>
-      </c>
-      <c r="C40" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="D40" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="F40" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G40" s="3"/>
-      <c r="I40" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="J40" s="40" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="32" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D41" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A42" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="G44" s="3"/>
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/로스트아크/데이터테이블/Effect_Table(변경중).xlsx
+++ b/로스트아크/데이터테이블/Effect_Table(변경중).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084B6C16-9633-4759-BF23-4514EDC3519A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5DFD05-C270-4209-B097-1385BD8B207B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
@@ -409,7 +409,17 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t xml:space="preserve"> : 오브젝트 생성 (투사체 등)
+          <t xml:space="preserve"> : 오브젝트 생성 (투사체 등)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
       </text>
@@ -711,7 +721,103 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve"> : 비율 감소</t>
+          <t xml:space="preserve"> : 비율 감소
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>DEAL</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 피해량 처리
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>GRANT</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 부여
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>CHANGE</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 변경
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>INSTANCING</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 오브젝트 인스턴싱</t>
         </r>
       </text>
     </comment>
@@ -1072,7 +1178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="230">
   <si>
     <t>comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1195,47 +1301,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스킬 효과 ID 넘버링</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>direct</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PARTY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력 N 증가 - 자신</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력 N% 증가 - 자신</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력 N 증가 - 파티원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력 N% 증가 - 파티원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력 N 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력 N% 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보호막 - 파티원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보호막 - 자신</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1333,26 +1403,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1000 ~ 1999 : 피해
-2000 ~ 2999 : 능력치 증가
-3000 ~ 3999 : 능력치 감소
-4000 ~ 4999 : 특수 기능 - 버프 
-5000 ~ 5999 : 특수 기능 - 디버프
-6000 ~ 6999 : 스킬의 속성 변경
-7000 ~ 7499 : 게이지 회복
-7500 ~ 7999 : 게이지 소모
-8000 ~ 8999 : 오브젝트 인스턴싱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>투사체 오브젝트 생성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>설치형 오브젝트 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>소환</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1413,10 +1467,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[hp_ratio,hit_cnt]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tick</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1437,14 +1487,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>피해량 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[damage]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1457,22 +1499,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[shield]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[hp_raio]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"shield"}의 피해를 흡수하는 보호막을 형성한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 생명력 비례 보호막 -자신</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"tick_time"}마다 {"damage"}의 피해를 준다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1485,10 +1511,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id = {"obj_id"}인 오브젝트를 생성한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -1516,14 +1538,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>value_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수치의 적용 유형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>영역형 오브젝트 생성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1564,22 +1578,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대상 최대 체력의 {"hp_ratio"}%에 해당하는 피해를 {"hit_cnt"}번 준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신 최대 생명력의 {"hp_ratio"}%만큼 받는 피해를 흡수한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신 및 파티원의 파티원의 공격력에 자신의 기본 공격력의 {"atk_pwr"}%만큼 더한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dmg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>적에게 주는 피해가 {"damage"}% 증가한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1589,6 +1587,564 @@
   </si>
   <si>
     <t>[damage,tick_time]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[cooldown]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 스킬의 재사용 대기 시간을 {"cooldown"}초 감소시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 스킬의 재사용 대기 시간을 {"cooldown"}% 감소시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[element]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬에 {"element"}속성을 부여한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cur_hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[hp]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신의 생명력을 {"hp"}만큼 회복한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP % 회복 - 자신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP 회복 - 자신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP 회복 - 파티원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP % 회복 - 파티원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[max_hp_ratio]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[base_atk_pwr_ratio]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신 및 파티원의 파티원의 공격력에 자신의 기본 공격력의 {"base_atk_pwr_ratio"}%만큼 더한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[max_hp_ratio,hit_cnt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상 최대 체력의 {"max_hp_ratio"}%에 해당하는 피해를 {"hit_cnt"}번 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신 및 파티원의 생명력을 {"hp"}만큼 회복한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신의 생명력을 최대 생명력의 {"max_hp_ratio"}%만큼 회복한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신 및 파티원의 생명력을 최대 생명력의 {"max_hp_ratio"}%만큼 회복한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공포에 걸려 행동 불가 상태가 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기절에 걸려 행동 불가 상태가 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수면에 걸려 행동 불가 상태가 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감금 상태가 되어 행동 불가 상태가 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감전에 걸려 행동 불가 상태가 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동결에 걸려 행동 불가 상태가 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>석화에 걸려 행동 불가 상태가 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지진에 걸려 행동 불가 상태가 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해충에 걸려 행동 불가 상태가 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매혹 상태에 빠져 적대적 상태가 되며, 시간이 다 되면 정기가 모두 빠져 사망한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태이상 - 기절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태이상 - 수면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태이상 - 감금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태이상 - 감전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태이상 - 동결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태이상 - 석화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태이상 - 지진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태이상 - 해충</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태이상 - 매혹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sleep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imprison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electrocution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>petrify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>earthquake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fascination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프 - 중독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프 - 출혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_res</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무적 - 자신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무적 - 파티원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 생명력 비례 보호막 - 파티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 생명력 비례 보호막 - 자신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신 및 파티원에게 자신의 최대 생명력의 {"hp_ratio"}%만큼 피해를 흡수하는 보호막을 부여한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신의 최대 생명력의 {"hp_ratio"}%만큼 피해를 흡수하는 보호막을 부여한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격 이상 면역 - 자신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태 이상 면역 - 자신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태 이상 면역 - 파티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격 이상 면역 - 파티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invincibility</t>
+  </si>
+  <si>
+    <t>push_immune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuff_immune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stealth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transformation</t>
+  </si>
+  <si>
+    <t>DEAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중독 - {"tick_time"}마다 {"damage"}의 피해를 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출혈 - {"tick_time"}마다 {"damage"}의 피해를 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화상 - {"tick_time"}마다 {"damage"}의 [화]속성 마법 피해를 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRANT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 속성 변환 - [성]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 속성 변환 - [암]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 속성 변환 - [화]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 속성 변환 - [수]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 속성 변환 - [토]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 속성 변환 - [뇌]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operation_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 속성을 [성]속성으로 변환한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 속성을 [암]속성으로 변환한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 속성을 [화]속성으로 변환한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 속성을 [수]속성으로 변환한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 속성을 [토]속성으로 변환한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 속성을 [뇌]속성으로 변환한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>summon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 지점에 id = {"obj_id"}인 오브젝트를 생성한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id = {"obj_id"}인 오브젝트를 생성하여 발사한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id = {"obj_id"}인 소환수를 소환한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과가 적용되는 방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSTANCING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special_debuff_fear.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special_debuff_posion.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special_debuff_burn.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special_debuff_bleed.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bleed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special_debuff_stun.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special_debuff_sleep.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special_debuff_imprison.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special_debuff_electrocution.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special_debuff_freeze.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special_debuff_petrify.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special_debuff_earthquake.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special_debuff_pest.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special_debuff_fascination.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special_buff_shield.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special_buff_heal.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ability_buff_atkpwr.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력이 {"atk_pwr"}% 감소한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력이 {"atk_pwr"} 감소한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ability_debuff_atkpwr.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 % 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 % 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[def]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ability_debuff_def.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력이 {"def"} 감소한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력이 {"def"}% 감소한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outgoing_damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extra_damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 피해 증가 - 자신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적에게 주는 피해량 증가 - 자신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적에게 주는 피해량 증가 - 파티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 피해 증가 - 파티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 증가 - 자신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 % 증가 - 자신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 증가 - 파티원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 % 증가 - 파티원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outgoing_dmg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 피해가 {"damage"}% 증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신 및 파티원의 적에게 주는 피해가 {"damage"}% 증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신 및 파티원의 추가 피해가 {"damage"}% 증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이콘 파일 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1761,7 +2317,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1930,24 +2486,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="0"/>
       </left>
@@ -2059,7 +2597,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2078,7 +2616,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2087,13 +2625,13 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2165,19 +2703,16 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2197,33 +2732,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2547,10 +3055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
-  <dimension ref="A1:M84"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2562,27 +3070,19 @@
     <col min="5" max="5" width="11.09765625" style="2" customWidth="1"/>
     <col min="6" max="6" width="63.09765625" style="25" customWidth="1"/>
     <col min="7" max="7" width="8.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.8984375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.8984375" style="3" customWidth="1"/>
-    <col min="10" max="11" width="8.796875" style="3"/>
-    <col min="12" max="13" width="8.796875" style="2"/>
-    <col min="14" max="16384" width="8.796875" style="3"/>
+    <col min="8" max="9" width="8.796875" style="2"/>
+    <col min="10" max="16384" width="8.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:11" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="43" t="s">
+    <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="45"/>
-      <c r="H2" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="48"/>
-    </row>
-    <row r="3" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
+    </row>
+    <row r="3" spans="2:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
@@ -2596,33 +3096,23 @@
         <v>15</v>
       </c>
       <c r="G3" s="8"/>
-      <c r="H3" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="51"/>
-    </row>
-    <row r="4" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C4" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="G4" s="8"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="12" t="s">
         <v>4</v>
       </c>
@@ -2639,32 +3129,24 @@
         <v>16</v>
       </c>
       <c r="G5" s="8"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="54"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C6" s="17"/>
       <c r="D6" s="18" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G6" s="8"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="54"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C7" s="17"/>
       <c r="D7" s="18" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>20</v>
@@ -2673,12 +3155,8 @@
         <v>19</v>
       </c>
       <c r="G7" s="8"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="54"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C8" s="17"/>
       <c r="D8" s="18" t="s">
         <v>17</v>
@@ -2687,165 +3165,126 @@
         <v>18</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G8" s="8"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="54"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C9" s="17"/>
       <c r="D9" s="18" t="s">
-        <v>96</v>
+        <v>171</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="G9" s="8"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="54"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
+      <c r="D10" s="18" t="s">
+        <v>86</v>
+      </c>
       <c r="E10" s="19"/>
       <c r="F10" s="27"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="54"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="27"/>
+      <c r="D11" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>42</v>
+      </c>
       <c r="G11" s="8"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="54"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
+      <c r="D12" s="18" t="s">
+        <v>142</v>
+      </c>
       <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
+      <c r="F12" s="20" t="s">
+        <v>229</v>
+      </c>
       <c r="G12" s="8"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="54"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C13" s="17"/>
-      <c r="D13" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>51</v>
-      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="27"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C14" s="17"/>
       <c r="D14" s="18"/>
       <c r="E14" s="19"/>
       <c r="F14" s="27"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="54"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C15" s="36"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="39"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C15" s="35"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-    </row>
-    <row r="16" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C16" s="21"/>
       <c r="D16" s="22"/>
       <c r="E16" s="23"/>
       <c r="F16" s="24"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="F21" s="26"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A22" s="41" t="s">
-        <v>89</v>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" s="40" t="s">
+        <v>70</v>
       </c>
       <c r="C22" s="2"/>
       <c r="F22" s="26"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C23" s="2"/>
-      <c r="F23" s="42"/>
+      <c r="F23" s="41"/>
       <c r="G23" s="33"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C24" s="2"/>
       <c r="F24" s="26"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C25" s="2"/>
-      <c r="F25" s="42"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F25" s="41"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C28" s="2"/>
       <c r="F28" s="26"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.4">
@@ -3005,9 +3444,8 @@
       <c r="C84" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="C2:E2"/>
-    <mergeCell ref="H2:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3018,24 +3456,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
-  <dimension ref="A1:X41"/>
+  <dimension ref="A1:X89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A46" sqref="A46:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="25.8984375" style="31" customWidth="1"/>
+    <col min="1" max="1" width="29.59765625" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.19921875" style="32" customWidth="1"/>
     <col min="3" max="3" width="10.796875" style="32" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.8984375" style="32" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.8984375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="20.8984375" style="32" customWidth="1"/>
-    <col min="11" max="11" width="73.796875" style="40" customWidth="1"/>
+    <col min="6" max="6" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.8984375" style="32" customWidth="1"/>
+    <col min="9" max="9" width="27.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="73.796875" style="39" customWidth="1"/>
     <col min="12" max="13" width="15.69921875" style="34" customWidth="1"/>
     <col min="14" max="15" width="15.69921875" style="33" customWidth="1"/>
     <col min="16" max="16" width="18.69921875" style="33" customWidth="1"/>
@@ -3052,26 +3490,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E1" s="29" t="s">
         <v>17</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>96</v>
+        <v>171</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="H1" s="29"/>
-      <c r="J1" s="29" t="s">
-        <v>50</v>
+        <v>86</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>142</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="L1" s="30"/>
       <c r="M1" s="30"/>
@@ -3089,7 +3529,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="31" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B2" s="32">
         <v>1000</v>
@@ -3101,13 +3541,22 @@
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="K2" s="40" t="s">
-        <v>68</v>
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>57</v>
       </c>
       <c r="L2" s="30"/>
       <c r="M2" s="30"/>
@@ -3125,7 +3574,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A3" s="31" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B3" s="32">
         <v>1001</v>
@@ -3137,13 +3586,22 @@
         <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="K3" s="40" t="s">
-        <v>69</v>
+        <v>26</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="39" t="s">
+        <v>58</v>
       </c>
       <c r="L3" s="30"/>
       <c r="M3" s="30"/>
@@ -3161,22 +3619,34 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A4" s="31" t="s">
-        <v>72</v>
+        <v>60</v>
+      </c>
+      <c r="B4" s="32">
+        <v>1002</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D4" s="32" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J4" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="K4" s="40" t="s">
-        <v>85</v>
+        <v>59</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="39" t="s">
+        <v>67</v>
       </c>
       <c r="L4" s="30"/>
       <c r="M4" s="30"/>
@@ -3194,7 +3664,10 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A5" s="31" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="B5" s="32">
+        <v>1003</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>21</v>
@@ -3203,16 +3676,22 @@
         <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J5" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="K5" s="40" t="s">
-        <v>108</v>
+        <v>84</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="39" t="s">
+        <v>107</v>
       </c>
       <c r="L5" s="30"/>
       <c r="M5" s="30"/>
@@ -3228,7 +3707,37 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="B6" s="32">
+        <v>2000</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>53</v>
+      </c>
       <c r="L6" s="30"/>
       <c r="M6" s="30"/>
       <c r="N6" s="2"/>
@@ -3244,46 +3753,67 @@
       <c r="X6" s="2"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-    </row>
-    <row r="8" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B7" s="32">
+        <v>2001</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="K7" s="39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8" s="31" t="s">
-        <v>27</v>
+        <v>222</v>
       </c>
       <c r="B8" s="32">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="J8" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" s="40" t="s">
-        <v>64</v>
+        <v>81</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="K8" s="39" t="s">
+        <v>54</v>
       </c>
       <c r="L8" s="30"/>
       <c r="M8" s="30"/>
@@ -3299,30 +3829,36 @@
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="31" t="s">
-        <v>28</v>
+        <v>224</v>
       </c>
       <c r="B9" s="32">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="J9" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="K9" s="40" t="s">
-        <v>65</v>
+        <v>81</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>56</v>
       </c>
       <c r="L9" s="30"/>
       <c r="M9" s="30"/>
@@ -3338,58 +3874,81 @@
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="31" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B10" s="32">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J10" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10" s="40" t="s">
-        <v>66</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="K10" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
     </row>
     <row r="11" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="31" t="s">
-        <v>30</v>
+        <v>218</v>
       </c>
       <c r="B11" s="32">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>36</v>
+        <v>215</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="J11" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="K11" s="40" t="s">
-        <v>67</v>
+        <v>81</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="39" t="s">
+        <v>87</v>
       </c>
       <c r="L11" s="30"/>
       <c r="M11" s="30"/>
@@ -3407,32 +3966,34 @@
     </row>
     <row r="12" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="31" t="s">
-        <v>62</v>
+        <v>219</v>
       </c>
       <c r="B12" s="32">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>36</v>
+        <v>215</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="J12" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="K12" s="40" t="s">
-        <v>110</v>
+        <v>225</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="39" t="s">
+        <v>227</v>
       </c>
       <c r="L12" s="30"/>
       <c r="M12" s="30"/>
@@ -3449,16 +4010,36 @@
       <c r="X12" s="2"/>
     </row>
     <row r="13" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="40"/>
+      <c r="A13" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="B13" s="32">
+        <v>2007</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="39" t="s">
+        <v>226</v>
+      </c>
       <c r="L13" s="30"/>
       <c r="M13" s="30"/>
       <c r="N13" s="2"/>
@@ -3475,32 +4056,34 @@
     </row>
     <row r="14" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="31" t="s">
-        <v>76</v>
+        <v>220</v>
       </c>
       <c r="B14" s="32">
-        <v>2100</v>
+        <v>2008</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>77</v>
+        <v>216</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="J14" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="K14" s="40" t="s">
-        <v>112</v>
+        <v>216</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="39" t="s">
+        <v>228</v>
       </c>
       <c r="L14" s="30"/>
       <c r="M14" s="30"/>
@@ -3524,9 +4107,9 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="40"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="2"/>
+      <c r="K15" s="39"/>
       <c r="L15" s="30"/>
       <c r="M15" s="30"/>
       <c r="N15" s="2"/>
@@ -3542,16 +4125,36 @@
       <c r="X15" s="2"/>
     </row>
     <row r="16" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="40"/>
+      <c r="A16" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="B16" s="32">
+        <v>3000</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K16" s="39" t="s">
+        <v>204</v>
+      </c>
       <c r="L16" s="30"/>
       <c r="M16" s="30"/>
       <c r="N16" s="2"/>
@@ -3566,29 +4169,37 @@
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A17" s="31" t="s">
-        <v>31</v>
+        <v>208</v>
       </c>
       <c r="B17" s="32">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="40"/>
+        <v>83</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K17" s="39" t="s">
+        <v>203</v>
+      </c>
       <c r="L17" s="30"/>
       <c r="M17" s="30"/>
       <c r="N17" s="2"/>
@@ -3605,22 +4216,35 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A18" s="31" t="s">
-        <v>32</v>
+        <v>206</v>
       </c>
       <c r="B18" s="32">
-        <v>3001</v>
+        <v>3002</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>36</v>
+        <v>210</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>104</v>
+        <v>82</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="39" t="s">
+        <v>213</v>
       </c>
       <c r="L18" s="30"/>
       <c r="M18" s="30"/>
@@ -3636,17 +4260,37 @@
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="40"/>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A19" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" s="32">
+        <v>3003</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="K19" s="39" t="s">
+        <v>214</v>
+      </c>
       <c r="L19" s="30"/>
       <c r="M19" s="30"/>
       <c r="N19" s="2"/>
@@ -3662,294 +4306,1342 @@
       <c r="X19" s="2"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A20" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="32">
-        <v>4000</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J20" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="K20" s="40" t="s">
-        <v>83</v>
-      </c>
+      <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A21" s="31" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="B21" s="32">
-        <v>4001</v>
+        <v>4000</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K21" s="40" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="39" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A22" s="31" t="s">
-        <v>84</v>
+        <v>99</v>
+      </c>
+      <c r="B22" s="32">
+        <v>4001</v>
       </c>
       <c r="C22" s="32" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A23" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J22" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="K22" s="40" t="s">
-        <v>109</v>
+      <c r="B23" s="32">
+        <v>4002</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A24" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="32">
+        <v>4003</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H24" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="39" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A25" s="31" t="s">
-        <v>6</v>
+        <v>145</v>
       </c>
       <c r="B25" s="32">
-        <v>5000</v>
+        <v>4004</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="32">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A26" s="31" t="s">
-        <v>7</v>
+        <v>146</v>
       </c>
       <c r="B26" s="32">
-        <v>5100</v>
+        <v>4005</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>10</v>
+        <v>155</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="32">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A27" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="B27" s="32">
+        <v>4006</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="39" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A28" s="31" t="s">
-        <v>58</v>
+        <v>147</v>
       </c>
       <c r="B28" s="32">
-        <v>6000</v>
+        <v>4007</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="F28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H28" s="32" t="s">
         <v>103</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="39" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A29" s="31" t="s">
-        <v>59</v>
+        <v>151</v>
       </c>
       <c r="B29" s="32">
-        <v>6001</v>
+        <v>4008</v>
       </c>
       <c r="C29" s="32" t="s">
         <v>22</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>99</v>
+        <v>156</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>99</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="32">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A30" s="31" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="B30" s="32">
-        <v>6002</v>
+        <v>4009</v>
       </c>
       <c r="C30" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="32">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A31" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" s="32">
+        <v>4010</v>
+      </c>
+      <c r="C31" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="D31" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="32">
+        <v>0</v>
+      </c>
+      <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A32" s="31" t="s">
-        <v>38</v>
+        <v>153</v>
       </c>
       <c r="B32" s="32">
-        <v>7000</v>
+        <v>4011</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>39</v>
+        <v>157</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J32" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="K32" s="40" t="s">
-        <v>87</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="32">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" s="31" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="B33" s="32">
-        <v>7001</v>
+        <v>4012</v>
       </c>
       <c r="C33" s="32" t="s">
         <v>22</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="32">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A34" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" s="32">
+        <v>4013</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="32">
+        <v>0</v>
+      </c>
+      <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A35" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="32">
-        <v>7500</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" s="31" t="s">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="B36" s="32">
-        <v>7501</v>
+        <v>4990</v>
       </c>
       <c r="C36" s="32" t="s">
         <v>22</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>42</v>
+        <v>79</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="39" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A37" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="B37" s="32">
+        <v>4991</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="3"/>
+      <c r="K37" s="39" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" s="31" t="s">
-        <v>53</v>
+        <v>167</v>
       </c>
       <c r="B38" s="32">
-        <v>8000</v>
+        <v>4992</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="D38" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J38" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="K38" s="40" t="s">
-        <v>88</v>
+      <c r="F38" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="3"/>
+      <c r="K38" s="39" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" s="31" t="s">
-        <v>54</v>
+        <v>168</v>
+      </c>
+      <c r="B39" s="32">
+        <v>4993</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="D39" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>79</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="J39" s="3"/>
+      <c r="K39" s="39" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40" s="31" t="s">
-        <v>98</v>
+        <v>169</v>
+      </c>
+      <c r="B40" s="32">
+        <v>4994</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+      <c r="J40" s="3"/>
+      <c r="K40" s="39" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41" s="31" t="s">
-        <v>55</v>
+        <v>170</v>
+      </c>
+      <c r="B41" s="32">
+        <v>4995</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>22</v>
       </c>
       <c r="D41" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="F41" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3"/>
+      <c r="K41" s="39" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A43" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="B43" s="32">
+        <v>5000</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="J43" s="3"/>
+      <c r="K43" s="39" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A44" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="B44" s="32">
+        <v>5001</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J44" s="3"/>
+      <c r="K44" s="39" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A45" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="32">
+        <v>5002</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+      <c r="H45" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J45" s="3"/>
+      <c r="K45" s="39" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A47" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="32">
+        <v>5500</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J47" s="3"/>
+      <c r="K47" s="39" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A48" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" s="32">
+        <v>5501</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J48" s="3"/>
+      <c r="K48" s="39" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A49" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" s="32">
+        <v>5502</v>
+      </c>
+      <c r="C49" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="J49" s="3"/>
+      <c r="K49" s="39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A50" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50" s="32">
+        <v>5503</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J50" s="3"/>
+      <c r="K50" s="39" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A51" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="B51" s="32">
+        <v>5504</v>
+      </c>
+      <c r="C51" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J51" s="3"/>
+      <c r="K51" s="39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A52" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="B52" s="32">
+        <v>5505</v>
+      </c>
+      <c r="C52" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="J52" s="3"/>
+      <c r="K52" s="39" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A53" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" s="32">
+        <v>5506</v>
+      </c>
+      <c r="C53" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="J53" s="3"/>
+      <c r="K53" s="39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A54" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="B54" s="32">
+        <v>5507</v>
+      </c>
+      <c r="C54" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G54" s="2">
+        <v>0</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J54" s="3"/>
+      <c r="K54" s="39" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A55" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="B55" s="32">
+        <v>5508</v>
+      </c>
+      <c r="C55" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G55" s="2">
+        <v>0</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J55" s="3"/>
+      <c r="K55" s="39" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A56" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="B56" s="32">
+        <v>5509</v>
+      </c>
+      <c r="C56" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="J56" s="3"/>
+      <c r="K56" s="39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J57" s="3"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J58" s="3"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A59" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B59" s="32">
+        <v>6000</v>
+      </c>
+      <c r="C59" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H59" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="J59" s="3"/>
+      <c r="K59" s="39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A60" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B60" s="32">
+        <v>6001</v>
+      </c>
+      <c r="C60" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H60" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="J60" s="3"/>
+      <c r="K60" s="39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A61" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" s="32">
+        <v>6002</v>
+      </c>
+      <c r="C61" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H61" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="J61" s="3"/>
+      <c r="K61" s="39" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J62" s="3"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A63" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B63" s="32">
+        <v>7000</v>
+      </c>
+      <c r="C63" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H63" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="J63" s="3"/>
+      <c r="K63" s="39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A64" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B64" s="32">
+        <v>7001</v>
+      </c>
+      <c r="C64" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J64" s="3"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J65" s="3"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A66" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B66" s="32">
+        <v>7500</v>
+      </c>
+      <c r="C66" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J66" s="3"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A67" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B67" s="32">
+        <v>7501</v>
+      </c>
+      <c r="C67" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J67" s="3"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J68" s="3"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A69" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B69" s="32">
+        <v>8000</v>
+      </c>
+      <c r="C69" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D69" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H69" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="J69" s="3"/>
+      <c r="K69" s="39" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A70" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" s="32">
+        <v>8001</v>
+      </c>
+      <c r="C70" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D70" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H70" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="J70" s="3"/>
+      <c r="K70" s="39" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A71" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B71" s="32">
+        <v>8002</v>
+      </c>
+      <c r="C71" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D71" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H71" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="J71" s="3"/>
+      <c r="K71" s="39" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J72" s="3"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J73" s="3"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J74" s="3"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J75" s="3"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J76" s="3"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J77" s="3"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J78" s="3"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J79" s="3"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J80" s="3"/>
+    </row>
+    <row r="81" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J81" s="3"/>
+    </row>
+    <row r="82" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J82" s="3"/>
+    </row>
+    <row r="83" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J83" s="3"/>
+    </row>
+    <row r="84" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J84" s="3"/>
+    </row>
+    <row r="85" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J85" s="3"/>
+    </row>
+    <row r="86" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J86" s="3"/>
+    </row>
+    <row r="87" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J87" s="3"/>
+    </row>
+    <row r="88" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J88" s="3"/>
+    </row>
+    <row r="89" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J89" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
